--- a/loaded_influencer_data/pavonau.ugc/pavonau.ugc_video.xlsx
+++ b/loaded_influencer_data/pavonau.ugc/pavonau.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7485826038145010966</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.310344827586208</v>
+        <v>11.55115511551155</v>
       </c>
       <c r="I2" t="n">
-        <v>8.620689655172415</v>
+        <v>9.240924092409241</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6896551724137931</v>
+        <v>2.31023102310231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,19 +558,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7486929205540818198</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7489175238207425814</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -580,144 +580,144 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>레오노르 그릴과 파트너십을 맺고✨ Baume Bois de Rose는 내가 가장 좋아하는 헤어스타일이 되었고 승화된 헤어스타일이 되었습니다. 얼지 않고 가벼운 질감의 단련. 촉감은 곱슬함을 길들이고 우아하게 머리카락을 구성하기에 충분합니다!🌹✨ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11.98738170347003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.72555205047319</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.261829652996845</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9463722397476341</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7488379413822770454</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>295</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>새로운 헤어 장식: 헤어 프로디지외 제품군!💛 매끄러운 청소와 광택을 위한 1️⃣ 샴푸✨ 2️⃣깊은 수분 공급과 영양이 풍부한 모발을 위한 Baume In Nutrition💆‍♀️ 3️⃣ 매우 부드럽고 코팅하기 쉽고 최대 230°의 모발을 보호하는 방수 디탱글링 우유🔥 결과: 비단, 머리카락. .. 그리고 신성한 냄새가 좋아! 냄새가 정말 미쳤어😍 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10.16949152542373</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.457627118644068</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.711864406779661</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.016949152542373</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7486929205540818198</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>제품과 함께 더 매력적인 모습 🩷 나는 훈제 라이너를 좋아하고, 숭고한 매실 색조의 이 팔레트로 결과는 매우 뜨겁습니다!🔥 당신은 그것을 좋아합니까?✨ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>14.64968152866242</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.05732484076433</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.592356687898089</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9554140127388535</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H5" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.88515406162465</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.400560224089636</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8403361344537815</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7484335375691926806</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>446</v>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✨🌸와 함께하는 봄 메이크업 룩 오늘은 스프링 메이크업 룩 세트의 컨실러, 프리 파우더, 브론저, 블러셔, 하이라이터, 아이, 립 라이너를 테스트합니다!✨ 신선하고 화려하며 메이크업을 매우 쉽게 만들 수 있습니다. .. 빛으로 봄을 맞이하기에 완벽합니다!🌷💫 상업적 협업 - 제공되는 제품 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>18.38565022421525</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.24663677130045</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.139013452914798</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4484304932735426</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7483253212938620182</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>341</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>감사합니다💚 곧 이 제품들을 돌아볼게요! 우선, 그 냄새는 정말 대단해요! 오이와 같은 신선한 냄새는 제가 가장 좋아하는 😍 모든 것을 테스트하기를 기다릴 수 없습니다🧖‍♀️ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>13.78299120234604</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.26392961876833</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.519061583577713</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.466275659824047</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7482521419000155414</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
@@ -726,848 +726,848 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>제품과 함께 더 매력적인 모습 🩷 나는 훈제 라이너를 좋아하고, 숭고한 매실 색조의 이 팔레트로 결과는 매우 뜨겁습니다!🔥 당신은 그것을 좋아합니까?✨ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>18.24175824175824</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.16483516483516</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.076923076923077</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4395604395604396</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7483253212938620182</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>348</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>감사합니다💚 곧 이 제품들을 돌아볼게요! 우선, 그 냄새는 정말 대단해요! 오이와 같은 신선한 냄새는 제가 가장 좋아하는 😍 모든 것을 테스트하기를 기다릴 수 없습니다🧖‍♀️ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>13.79310344827586</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7482521419000155414</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>레오노르 그레일 파리와 제휴하여✨ Volumator Diamond를 테스트했습니다! 판지 효과 없이 볼륨을 가져옵니다🥹 💨에어리얼 텍스처 천연 성분으로 농축된 🌿 포뮬라 💁‍♀️즉각적인 볼륨 효과 나는 얇은 머리를 가지고 있고 나는 그것을 좋아했다! 누가 이미 그것을 테스트했는가?👇 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>13.89521640091116</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.70615034168565</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.189066059225513</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9111617312072893</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>13.77777777777778</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/photo/7482013288427949334</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>360</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B9" t="n">
+        <v>366</v>
+      </c>
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>그리고 당신, 당신의 점성술 기호는 무엇입니까?👀💥 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6.111111111111111</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Et toi c'est quoi ton signe astrologique ? 👀💥 #UGC #creatriceugc #creationugc #creationdecontenu #ugccontentcreator #ugccreator #ugcfrance Créatrice UGC Créatrice UGC Beauté Créatrice UGC Skincare Créatrice de contenu</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.010928961748633</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.46448087431694</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.546448087431694</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.092896174863388</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7481029557944864022</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>669</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B10" t="n">
+        <v>677</v>
+      </c>
+      <c r="C10" t="n">
         <v>67</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>✨🧡 제품을 사용한 GRWM 오늘은 컨실러, 브론저, 블러셔, 하이라이터를 테스트합니다! 녹는 질감, 광택 마감, 매우 쉬운 적용!🔥 패션위크를 위한 글로리 메이크업이 검증되었습니다!💥 * 상업적 협업 * 제공됨 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>11.50971599402093</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.01494768310912</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.494768310911809</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8968609865470852</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>11.37370753323486</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.896602658788774</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.477104874446086</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8862629246676514</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7479896871759105302</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>472</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>54</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>✨🧡 제품을 사용한 GRWM 오늘은 컨실러, 브론저, 블러셔, 하이라이터를 테스트합니다! 녹는 질감, 광택 마감, 매우 쉬운 적용!🔥 패션위크를 위한 글로리 메이크업이 검증되었습니다!💥 * 상업적 협업 * 제공됨 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>14.61864406779661</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>11.4406779661017</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.177966101694915</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>1.694915254237288</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7478736431406451991</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>374</v>
-      </c>
-      <c r="C10" t="n">
-        <v>39</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>En partenariat avec Leonor Greyl Paris ✨ Cheveux plats en quête de volume ? ✨ J’ai testé le Shampooing Volumateur aux Algues de Leonor Greyl , et j'ai adoré ! Dès la première utilisation, mes cheveux sont plus légers, aériens et pleins de mouvement. Sa formule aux extraits d’algues et de protéines végétales apporte du volume sans alourdir, tout en laissant une sensation de douceur. Si vous cherchez un shampoing qui donne du volume et de la douceur à vos cheveux tout en prenant soin d’eux, celui-ci est une pépite ! 💙 @Leonor Greyl Paris #LeonorGreyl #Collaborationcommerciale #produitoffert #HairCare #VolumeBoost #cheveuxsoyeux #ugcfrance #ugccreator #ugccontentcreator #ugc #creationdecontenu #creatricedecontenu #creatriceugc Créatrice UGC Créatrice UGC Beauté Créatrice UGC Skincare Créatrice de contenu</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>14.17112299465241</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.42780748663102</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.74331550802139</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.871657754010695</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7478019939060731158</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>376</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>✨ IOMA 범위 7에 집중✨ 여러분은 또한 깨끗하고 밝고 균형 잡힌 피부를 꿈꿉니까? 7 범위는 피부를 부드럽게 정화, 매트화 및 진정시키기 위해 설계되었습니다. 테스트 및 승인되었습니다!✅ 프로그램에서: ✔️과도한 피지를 조절하는 완벽한 루틴 ✔️ 가벼운 질감 ✔️하루하루 건강한 피부 ✨누가 이미 테스트 했습니까? 댓글로 알려주세요!⬇️ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>12.76595744680851</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.042553191489363</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.723404255319149</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.063829787234043</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7476224622187285782</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>374</v>
       </c>
       <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>En partenariat avec Leonor Greyl Paris ✨ Cheveux plats en quête de volume ? ✨ J’ai testé le Shampooing Volumateur aux Algues de Leonor Greyl , et j'ai adoré ! Dès la première utilisation, mes cheveux sont plus légers, aériens et pleins de mouvement. Sa formule aux extraits d’algues et de protéines végétales apporte du volume sans alourdir, tout en laissant une sensation de douceur. Si vous cherchez un shampoing qui donne du volume et de la douceur à vos cheveux tout en prenant soin d’eux, celui-ci est une pépite ! 💙 @Leonor Greyl Paris #LeonorGreyl #Collaborationcommerciale #produitoffert #HairCare #VolumeBoost #cheveuxsoyeux #ugcfrance #ugccreator #ugccontentcreator #ugc #creationdecontenu #creatricedecontenu #creatriceugc Créatrice UGC Créatrice UGC Beauté Créatrice UGC Skincare Créatrice de contenu</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>14.17112299465241</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.42780748663102</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.74331550802139</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.871657754010695</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7478019939060731158</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>376</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✨ IOMA 범위 7에 집중✨ 여러분은 또한 깨끗하고 밝고 균형 잡힌 피부를 꿈꿉니까? 7 범위는 피부를 부드럽게 정화, 매트화 및 진정시키기 위해 설계되었습니다. 테스트 및 승인되었습니다!✅ 프로그램에서: ✔️과도한 피지를 조절하는 완벽한 루틴 ✔️ 가벼운 질감 ✔️하루하루 건강한 피부 ✨누가 이미 테스트 했습니까? 댓글로 알려주세요!⬇️ 크리에이터 UGC 크리에이터 UGC 뷰티 크리에이터 UGC 스킨케어 콘텐츠 제작자</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>12.76595744680851</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.042553191489363</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.723404255319149</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.063829787234043</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7476224622187285782</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>374</v>
+      </c>
+      <c r="C14" t="n">
         <v>28</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>✨ 내가 2월에 가장 좋아하는 스킨케어 3가지✨ 💧집중 히알루론적 마스크 -: 피부를 포동포동하고 매끄럽게 하는 수분 욕조. 💦히알루론산 - 수분을 보충하고 피부를 통통하게 유지하는 데 필수적입니다. 👁눈 윤곽 Ba + S - : 울트라 영양 공급으로 눈을 비추고 피로 징후를 줄여줍니다. ✨그리고 당신은 이달의 스킨케어에서 가장 좋아하는 것이 무엇인가요💙 ###</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>7.48663101604278</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.336898395721925</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>0.8021390374331552</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7469880453873405206</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>621</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>65</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>En partenariat avec Topicrem 💖 Peau hydratée, protégée, éclatante… en 3 étapes ✨💦 Ma morning routine pour une peau confortable toute la journée ! Le gel nettoyant tout doux, le sérum ultra frais et la crème SPF50 qui ne laisse aucune trace blanche… clairement un combo parfait 🤍 Qui a déjà testé ? 👀👇 @Topicrem_france #topifamily #hydra #Topicrem #Hydratation #MorningRoutine #ugc #ugccreator #ugccontentcreator #ugcpremium #ugcfrance #creatriceugc #creationdecontenu #UGC</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>11.43317230273752</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>10.46698872785829</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.966183574879227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>1.127214170692431</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7468054148676652310</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>510</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>62</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>11</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Topicrem과 파트너십을 맺고 💖 수분을 공급하고 보호하며 밝은 피부. .. 3단계✨💦 하루 종일 편안한 피부를 위한 나의 아침 루틴! 화이트 마크가 남지 않는 소프트 클렌징 젤, 울트라 프레쉬 세럼, SPF50 크림... 분명히 완벽한 콤보🤍 누가 이미 테스트했습니까? 👀👇</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>14.31372549019608</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>12.15686274509804</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.156862745098039</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>1.372549019607843</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7467248937661893910</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>695</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>56</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>9</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>✨ y와 통통한 입술을 한 조각으로! ✨ 저항할 수 없는 볼륨감 효과를 위한 케어와 광택의 완벽한 결합인 새로운 통통함을 발견하십시오. 수분, 편안함 및 자연스러운 눈부심... 누가 저항할 수 있습니까? 💋✨</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>10.35971223021583</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>8.057553956834532</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.302158273381295</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>1.294964028776978</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7463535784029621526</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>457</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>39</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>새 형식: 오디오 UGC 형식📱💖 100% 냉간 압착 유기농 오일을 발견하세요!🌹 이 작은 경이로움은 비타민 A와 C가 풍부하여 흉터를 줄이고 안색을 밝게 하며 강렬한 수분을 공급하기에 완벽합니다.💧 깨끗하고 효율적인 루틴을 위한 필수! 💕</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>10.28446389496718</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>8.533916849015318</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.75054704595186</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>1.75054704595186</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7462420870284234006</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>447</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>46</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>🌙 Besoin d'un sommeil réparateur ? Depuis que j'ai découvert Alvityl Mela-Sommeil, mes nuits sont enfin apaisées. 💤 Une solution naturelle pour retrouver un sommeil de qualité, sans prise de tête. Qui est prêt à dire adieu aux nuits agitées ? ✨ #Collaborationcommerciale #produitoffert #AlvitylMelaSommeil #SommeilRéparateur #RoutineBienEtre #ugc #creatriceugc #ugccontentcreator #ugccreator #creationdecontenu #CapCut</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>12.75167785234899</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>10.29082774049217</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.460850111856823</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>0.6711409395973155</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7461655200814681366</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>394800</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>698</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>14</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>84</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Mission terminée 🌙✨ : mon panier @Too Good To Go a tenu ses promesses avec un dîner réconfortant et zéro déchet 🍲🌱 Avec des pommes de terre, des aubergines et des tomates, j’ai préparé une recette facile qui prouve qu’anti-gaspi rime avec gourmandise 💚 Qui est prêt à relever le défi ? 🙌 #Collaboration #Partenariat #TooGoodToGo #DinerAntiGaspi #CuisineDurable #ZéroDéchet #ugc #ugcfrance #creationdecontenu #creatriceugc #ugccommunity #ugccontentcreator #ugccreator #CapCut</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>0.1803444782168186</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>0.1767983789260385</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.003546099290780142</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>0.02127659574468085</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7460918410155789590</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>325300</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>483</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>41</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Défi anti-gaspi 🌍 : transformer mon panier Too Good To Go en 3 repas ! Étape 2 : un déjeuner savoureux 🍴✨ Avec des tommates et des courgettes, j’ai créé une recette simple, rapide et pleine de saveurs ! Qui a dit qu’on ne pouvait pas sauver la planète tout en se régalant ? 🌱💚 Toi aussi télécharge l'application @Too Good To Go ♻️📱 #Collaboration #Partenariat #TooGoodToGo #DejeunerAntiGaspi #CuisineMaligne #ZéroDéchet #ugccreator #ugccontentcreator #ugccommunity #creatriceugc #creationdecontenu #ugcfrance #ugc #CapCut</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>0.1524746387949585</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>0.14847832769751</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.003996311097448509</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>0.01260375038426068</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7460584986719046934</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>120700</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>220</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>17</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Un panier Too Good To Go = 3 repas anti-gaspi 🌍✨ On commence avec un petit déjeuner gourmand et zéro déchet 🥐🍓. Ce que j’ai récupéré dans mon panier ? Des bananes et des pommes ! Résultat ? Une recette rapide et délicieuse qui fait du bien à la planète 🌱💛 Vous aussi téléchargez l'application @Too Good To Go ♻️📱 #Collaboration #TooGoodToGo #PetitDejAntiGaspi #ZéroDéchet #ugc #ugcfrance #creationdecontenu #creatriceugc #ugccommunity #ugccontentcreator #ugccreator</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>0.1855840927920464</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>0.1822700911350456</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.003314001657000828</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>0.01408450704225352</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7460194543296728342</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>622</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>220</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>가기에는 너무 좋은 하나 = 안티 가스피 🌍✨ 식사 3개 우리는 탐욕스러운 아침 식사와 낭비 없는 🥐🍓로 시작합니다. 초콜릿에서 무엇을 얻었습니까? 복숭아와 사과! 결과? 지구에 좋은 빠르고 맛있는 요리법🌱💛 응용 프로그램도 다운로드합니다. ♻️📱</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>36.01286173633441</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35.36977491961415</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.6430868167202572</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.733118971061093</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7458334910021946646</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>439</v>
-      </c>
-      <c r="C22" t="n">
-        <v>84</v>
-      </c>
-      <c r="D22" t="n">
-        <v>24</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>The Normal과 파트너십을 맺고 ✨잠자는 동안 기적을 일으키는 야간 루틴?🌙💤 여기 저의 새로운 장식이 있습니다. 평범한 밤 세트💧✨ 3가지 제품, 수분 공급, 조명 및 연령 징후를 목표로 하는 3가지 간단한 단계: 1️⃣히알루론산 2%+B5: 강렬한 수분과 통통한 피부. 망막2️⃣0.2% 에멀젼: 깨어났을 때 매끄럽고 밝은 피부. 3️⃣100% 퓨어 머스크 로즈 오일: 영양과 통일된 안색. 🌟결과? 하루를 맞이할 준비가 된 부드럽고 빛나는 피부! 💬당신은 어때요, 저녁 일상에서 가장 좋아하는 부분은 무엇인가요?</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>24.60136674259681</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19.13439635535308</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.466970387243736</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.050113895216401</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7457618020270214402</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1095</v>
-      </c>
-      <c r="C23" t="n">
-        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
@@ -1576,101 +1576,101 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>✨ 의 네롤리 양초는 다음과 같습니다. 🌿완벽한 연소를 위한 100% 천연 왁스 고치는 순간을 위한 꿀, 머스크, 오렌지의 🍊 노트 🔥안정적인 화염과 최적의 확산을 위한 면직물 심지 그리고 멸종되더라도 향수는 남아 있습니다. .. 마법✨ 인테리어를 바꿀 준비가 되셨습니까? 🕯️</t>
+          <t>가기에는 너무 좋은 하나 = 안티 가스피 🌍✨ 식사 3개 우리는 탐욕스러운 아침 식사와 낭비 없는 🥐🍓로 시작합니다. 초콜릿에서 무엇을 얻었습니까? 복숭아와 사과! 결과? 지구에 좋은 빠르고 맛있는 요리법🌱💛 응용 프로그램도 다운로드합니다. ♻️📱</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.19634703196347</v>
+        <v>36.01286173633441</v>
       </c>
       <c r="I23" t="n">
-        <v>2.831050228310502</v>
+        <v>35.36977491961415</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.365296803652968</v>
+        <v>0.6430868167202572</v>
       </c>
       <c r="L23" t="n">
-        <v>0.45662100456621</v>
+        <v>2.733118971061093</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7455746939972324630</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7458334910021946646</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C24" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>✨ 의 네롤리 양초는 다음과 같습니다. 🌿완벽한 연소를 위한 100% 천연 왁스 고치는 순간을 위한 꿀, 머스크, 오렌지의 🍊 노트 🔥안정적인 화염과 최적의 확산을 위한 면직물 심지 그리고 멸종되더라도 향수는 남아 있습니다. .. 마법✨ 인테리어를 바꿀 준비가 되셨습니까? 🕯️</t>
+          <t>The Normal과 파트너십을 맺고 ✨잠자는 동안 기적을 일으키는 야간 루틴?🌙💤 여기 저의 새로운 장식이 있습니다. 평범한 밤 세트💧✨ 3가지 제품, 수분 공급, 조명 및 연령 징후를 목표로 하는 3가지 간단한 단계: 1️⃣히알루론산 2%+B5: 강렬한 수분과 통통한 피부. 망막2️⃣0.2% 에멀젼: 깨어났을 때 매끄럽고 밝은 피부. 3️⃣100% 퓨어 머스크 로즈 오일: 영양과 통일된 안색. 🌟결과? 하루를 맞이할 준비가 된 부드럽고 빛나는 피부! 💬당신은 어때요, 저녁 일상에서 가장 좋아하는 부분은 무엇인가요?</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20.09925558312655</v>
+        <v>24.60136674259681</v>
       </c>
       <c r="I24" t="n">
-        <v>17.61786600496278</v>
+        <v>19.13439635535308</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.481389578163772</v>
+        <v>5.466970387243736</v>
       </c>
       <c r="L24" t="n">
-        <v>1.73697270471464</v>
+        <v>2.050113895216401</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/photo/7454489698648558870</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7457618020270214402</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>408</v>
+        <v>1095</v>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1680,243 +1680,243 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>✨ 의 네롤리 양초는 다음과 같습니다. 🌿완벽한 연소를 위한 100% 천연 왁스 고치는 순간을 위한 꿀, 머스크, 오렌지의 🍊 노트 🔥안정적인 화염과 최적의 확산을 위한 면직물 심지 그리고 멸종되더라도 향수는 남아 있습니다. .. 마법✨ 인테리어를 바꿀 준비가 되셨습니까? 🕯️</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3.19634703196347</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.831050228310502</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.365296803652968</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.45662100456621</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7455746939972324630</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>403</v>
+      </c>
+      <c r="C26" t="n">
+        <v>71</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✨ 의 네롤리 양초는 다음과 같습니다. 🌿완벽한 연소를 위한 100% 천연 왁스 고치는 순간을 위한 꿀, 머스크, 오렌지의 🍊 노트 🔥안정적인 화염과 최적의 확산을 위한 면직물 심지 그리고 멸종되더라도 향수는 남아 있습니다. .. 마법✨ 인테리어를 바꿀 준비가 되셨습니까? 🕯️</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>20.09925558312655</v>
+      </c>
+      <c r="I26" t="n">
+        <v>17.61786600496278</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.481389578163772</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.73697270471464</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/photo/7454489698648558870</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>408</v>
+      </c>
+      <c r="C27" t="n">
+        <v>55</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>메종 프랜시스 커크지안에 서명한 이 특별한 촛불로 휴일의 마법에 몸을 담그십시오🤍💫 그것의 향기는 눈 덮인 숲과 나무를 불러일으키고, 따뜻하고 마법 같은 분위기를 만들기에 완벽하며, 당신의 저녁에 향기를 풍깁니다✨💚 그리고 당신은 이번 겨울에 고치 분위기를 위해 가장 좋아하는 의식은 무엇입니까? ❄️</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>15.44117647058824</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>13.48039215686275</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.96078431372549</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>1.225490196078431</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7453913533491760406</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>713</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>45</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
         <v>6.591865357643758</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>6.311360448807854</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.2805049088359046</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>0.7012622720897616</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7451166507284925718</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>453</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>64</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>6</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Topicrem과의 상업적 협업🩷 민감한 피부? 모든 것을 바꾸는 루틴을 찾았습니다💫 CALM + 범위로 내 피부는 진정되고 수분이 공급되며 보호됩니다.💧💆‍♀️</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>15.67328918322296</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>14.1280353200883</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.545253863134658</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>1.324503311258278</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7449801430912830722</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>212</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>34</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>12</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>림멜과의 상업적 협업💜♏️ 💫💛에서 새로운 점성술 메이크업 컬렉션을 찾아보세요. 그리고 당신, 당신의 점성술 기호는 무엇입니까? 💥</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>21.69811320754717</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16.0377358490566</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.830188679245283</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2024-12-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7447981294761413911</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>449</v>
-      </c>
-      <c r="C29" t="n">
-        <v>41</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>✨ 적외선 마사지 브러시로 머리를 위한 새로운 의식! 😍 건강을 증진시키면서 편안한 경험. 🔥 이미 테스트 해 보셨나요? 💆‍♀️</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>11.1358574610245</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.131403118040089</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.00445434298441</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.8908685968819599</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7447236429534727426</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>431</v>
-      </c>
-      <c r="C30" t="n">
-        <v>64</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1926,97 +1926,97 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Exemple UGC bijoux 🤍💍 #ugc #creatriceugc #ugccontentcreator #ContenuUGC #ugccreator #ugcbijoux #ugcpremium #ugccommunity #CapCut</t>
+          <t>림멜과의 상업적 협업💜♏️ 💫💛에서 새로운 점성술 메이크업 컬렉션을 찾아보세요. 그리고 당신, 당신의 점성술 기호는 무엇입니까? 💥</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.08120649651972</v>
+        <v>21.69811320754717</v>
       </c>
       <c r="I30" t="n">
-        <v>14.8491879350348</v>
+        <v>16.0377358490566</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2320185614849188</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L30" t="n">
-        <v>1.392111368909513</v>
+        <v>2.830188679245283</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7446466780865875222</t>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7447981294761413911</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✨ 적외선 마사지 브러시로 머리를 위한 새로운 의식! 😍 건강을 증진시키면서 편안한 경험. 🔥 이미 테스트 해 보셨나요? 💆‍♀️</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>11.1358574610245</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.131403118040089</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.00445434298441</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8908685968819599</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7447236429534727426</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>431</v>
+      </c>
+      <c r="C32" t="n">
         <v>64</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>예 UGC 보석 🤍💍 #ugc #creatriceugc #ugccontentcreator #ContenuUGC #ugccreator #ugcbijoux #ugcpremium</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>13.74207188160677</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13.53065539112051</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2114164904862579</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.268498942917548</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7443373644438375712</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>911</v>
-      </c>
-      <c r="C32" t="n">
-        <v>66</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2026,930 +2026,980 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>Exemple UGC bijoux 🤍💍 #ugc #creatriceugc #ugccontentcreator #ContenuUGC #ugccreator #ugcbijoux #ugcpremium #ugccommunity #CapCut</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>15.08120649651972</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.8491879350348</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2320185614849188</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.392111368909513</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7446466780865875222</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>예 UGC 보석 🤍💍 #ugc #creatriceugc #ugccontentcreator #ContenuUGC #ugccreator #ugcbijoux #ugcpremium</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>13.74207188160677</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.53065539112051</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2114164904862579</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.268498942917548</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pavonau.ugc/video/7443373644438375712</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>911</v>
+      </c>
+      <c r="C34" t="n">
+        <v>66</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>평범한 🤍와의 상업적 협업 촉촉하고 매끄럽고 피부를 위한 완벽한 듀오를 테스트합니다!🛀 결과는? 통통한 피부, 밝고 하루를 맞이할 준비가 된 ❄️💫</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>7.574094401756312</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>7.244785949506037</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.3293084522502744</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>0.6586169045005488</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7442367107389492513</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>439</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>31</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>CALM + 🩷 범위 언박싱 그것에 대해 당신에게 빨리 말하고 싶어요🥰 +@Topicrem_france #topicrem #calm</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>9.567198177676538</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>7.061503416856492</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>2.505694760820045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>0.683371298405467</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7440157285378231585</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>460</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>83</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>8</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Bourjois와의 상업적 협업🩷 강렬한 색상, 완벽한 의상, 놀라운 편안함을 발견하십시오. 💄 당신의 멋진 면을 드러낼 준비가 되셨습니까? 💫</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>18.91304347826087</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>18.04347826086957</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>1.739130434782609</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7437225393213541665</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>503</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>56</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>9</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>🤍 자외선 차단제를 찾아보세요. 이 너겟은 SPF 보호와 초경량 텍스처가 결합되어 GR 필름을 남기지 않고 피부를 촉촉하게 가꿔줍니다💫 하루 종일 부드럽고 보호되고 밝은 피부!</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>14.51292246520875</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>11.13320079522863</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.379721669980119</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>1.789264413518887</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7436479742871719201</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>526</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>60</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>9</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>평범한 🤍와의 상업적 협업 밝은 피부를 얻는 방법✨ 간단하고 효율적이며 저렴한 제품! 가장 좋아하는 것은 무엇입니까? 💬👇</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>14.44866920152091</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>11.40684410646388</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.041825095057034</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>1.711026615969582</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-11-23</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7435684799295261984</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>466</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>90</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>26</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>림멜과의 상업적 협업🖤 ❤️☄️ 매일매일이 빛을 발할 수 있는 새로운 기회다. 💫 @rimmellondon #rimmellondon</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>24.89270386266094</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>19.31330472103004</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>5.579399141630901</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>1.716738197424893</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-11-15</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7433791100990590240</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>71600</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>58</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>8</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>여러분도 패키지를 집이나 중계소로 직접 배달하고 주요 브랜드의 제품을 -50%로 활용하세요! 💸💚앱의 "배송" 섹션에서 찾아보세요! ♻️</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>0.08659217877094973</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>0.08100558659217877</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.00558659217877095</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>0.0111731843575419</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7431507852499537185</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>512</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>37</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>6</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>홈 브라이트 오일은 정말 헤어 부스트입니다!✨ 깊은 수분을 공급하고 강해지며 놀라운 광택을 선사합니다🧚‍♀️ 건식 끝과 헬로 드림 헤어! 😍</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>7.6171875</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I41" t="n">
         <v>7.2265625</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.390625</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L41" t="n">
         <v>1.171875</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-11</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7430547737751473440</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B42" t="n">
         <v>545</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>248</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>28</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>31</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>놀라운 모험 달력을 소개합니다🩷🎄 매일, Nuxe의 상징적이고 감각적인 치료법을 발견하세요!📅🤶 자신을 대하거나 사랑하는 사람을 망칠 기회를 놓치지 마십시오. 🎁</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>50.64220183486239</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>45.50458715596331</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>5.137614678899083</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>5.688073394495413</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-5</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7429290139966393632</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>139100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>48</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>7</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>🩷 제품으로 나의 부드러운 일상을 발견하십시오. 메이크업 리무버 젤과 클렌징 무스 덕분에 피부가 깨끗하고 진정되며 다음 단계를 위한 준비가 되었습니다. 💋</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>0.04169662113587347</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>0.03450754852624011</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.007189072609633357</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.00503235082674335</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-10-30</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7426455192784178464</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>547</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>61</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>14</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>7</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>🩷 제품으로 나의 부드러운 일상을 발견하십시오. 메이크업 리무버 젤과 클렌징 무스 덕분에 피부가 깨끗하고 진정되며 다음 단계를 위한 준비가 되었습니다. 💋</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>13.71115173674589</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>11.15173674588666</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>2.559414990859232</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>1.279707495429616</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-10-28</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7425051475342019873</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>397</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>171</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>22</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>17</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Découvre toi aussi les paniers @Too Good To Go 💚 Fais des économies et lutte contre le gaspillage alimentaire 🤝👀</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>48.61460957178841</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>43.07304785894207</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>5.541561712846348</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>4.282115869017632</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-10-24</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7424047262977821984</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>1228</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>64</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>32</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>11</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>휴가 내내 내가 가장 좋아하는 SPF🌤🕶 💛의 SPF50+ 얼굴 액 부드러움에 타협하지 않고 완벽한 자외선 차단!☁️ 그리고 유카에 100/100 🤓</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>7.81758957654723</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>5.211726384364821</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.605863192182411</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>0.8957654723127036</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-10-17</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7421640561758686497</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>981</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>55</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>7</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">내 일상을 알아봐🤍 내가 가장 좋아하는 브랜드 중 하나는 PAVONAU24 코드로 할인을 받을 수 🧚‍♀️ 그리고 </t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>7.747196738022426</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>5.606523955147808</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.140672782874617</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>0.7135575942915392</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-10-13</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7419403236882304289</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>587</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>77</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>14</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>6</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>내 슈퍼 세럼을 찾아보세요! 더 이상 10개의 세럼이 필요하지 않습니다. 1개만 있으면 충분합니다! 💛 @Nuxe</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>15.50255536626917</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>13.1175468483816</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>2.385008517887564</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>1.022146507666099</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7417485754919652640</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>5431</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>83</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>16</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>11</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>지금 내가 가장 좋아하는 요리🤤 🍅 #CapCut #recipe #recette #recettefacile #recetterapide #recipes #pasta #pates</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>1.822868716626772</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>1.528263671515375</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.2946050451113975</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>0.2025409685140858</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-10-4</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7415675794632019233</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>529</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>106</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>42</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>7</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>단 5분 만에 빛날 준비가 되셨나요✨ 마르세유의 태양에서 영감을 받아 케어와 컬러가 어우러져 자연스러운 아름다움을 드러냅니다. 피부가 숨을 쉴 수 있도록 편안한 텍스처와 가벼운 커버력을 발견하십시오🌬 1) 선샤인 부스터 세럼 2) 립밤/블러쉬 - 02 로즈우드 3) 아이/하이라이트 - 05 아이스 브라운 *Collaborationcommerciale</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>27.9773156899811</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>20.03780718336484</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>7.939508506616257</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>1.323251417769376</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-9-28</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pavonau.ugc/video/7414519410217520416</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>759</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>150</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>33</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>21</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>💕의 홍당무를 발견하십시오. 쉐이드 1:95 로즈 드 자스페 그늘 2:17 부드러운 장미 냄새가 미쳤어 🤍 @BourjoisParis</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>24.11067193675889</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>19.76284584980237</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.347826086956522</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>2.766798418972332</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-9-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pavonau.ugc/video/7413432432197766433</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1065</v>
-      </c>
-      <c r="C50" t="n">
-        <v>84</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>13</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>미친 머핀🐝 밀가루 200g 흑설탕 100g 효모 반 봉지 크림 1 벽돌 버터 50g 빨간 과일 코스 블루베리 또는 캐시 🫐</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9.107981220657276</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7.887323943661972</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.220657276995305</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.220657276995305</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-9-18</t>
         </is>
       </c>
     </row>
